--- a/deberes.xlsx
+++ b/deberes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>MODULO</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>DIAGRAMA DE CLASE</t>
+  </si>
+  <si>
+    <t>ESTADISTICAS</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,6 +194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +484,7 @@
   <dimension ref="B6:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +636,13 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>22</v>
       </c>

--- a/deberes.xlsx
+++ b/deberes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>MODULO</t>
   </si>
@@ -99,13 +99,58 @@
   </si>
   <si>
     <t>ESTADISTICAS</t>
+  </si>
+  <si>
+    <t>VISTA</t>
+  </si>
+  <si>
+    <t>CONTROLADOR</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>creada</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>WHATSAPP EMAIL</t>
+  </si>
+  <si>
+    <t>MODELADO</t>
+  </si>
+  <si>
+    <t>FORMULARIO INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>MEDIA - FALTAN DIAGRAMAS IBM Y MODELADO</t>
+  </si>
+  <si>
+    <t>SOLO ANTERIOR</t>
+  </si>
+  <si>
+    <t>CREADA</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>MOVIMIENTOS</t>
+  </si>
+  <si>
+    <t>por hacer</t>
+  </si>
+  <si>
+    <t>CAMBIO EN PORCENTAJES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +172,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +195,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,12 +234,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,9 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,11 +259,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Énfasis5" xfId="4" builtinId="46"/>
     <cellStyle name="Énfasis5" xfId="2" builtinId="45"/>
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:L16"/>
+  <dimension ref="B3:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
@@ -497,171 +575,415 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="10" max="10" width="30.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>17</v>
+      <c r="F9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
+      <c r="J10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="J12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="18" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="22" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="26" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="30" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="3" t="s">
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="34" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="s">
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="38" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B6:D6"/>
+  <mergeCells count="10">
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
